--- a/medicine/Mort/Tombe_des_Jarres/Tombe_des_Jarres.xlsx
+++ b/medicine/Mort/Tombe_des_Jarres/Tombe_des_Jarres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La tombe des Jarres (en italien, Tomba dei dolii) est une tombe étrusque à hypogée de la nécropole de Banditaccia à Cerveteri.
 </t>
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Tombe des Jarres  date du VIe siècle av. J.-C. et fait partie des quatre tombes du Tumulo II[1]. Son nom provient du grand nombre de récipients (de type dolium) destinés à conserver le vin et les denrées alimentaires, avec des vases protocorinthiens et corinthiens[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Tombe des Jarres  date du VIe siècle av. J.-C. et fait partie des quatre tombes du Tumulo II. Son nom provient du grand nombre de récipients (de type dolium) destinés à conserver le vin et les denrées alimentaires, avec des vases protocorinthiens et corinthiens.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La tombe à entrée unique est constituée de deux chambres dans le même axe.
 La tomba degli Alari est accessible par le même dromos.
